--- a/REGULAR/RODRIQUEZ, IGNACIO.xlsx
+++ b/REGULAR/RODRIQUEZ, IGNACIO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -260,6 +260,18 @@
   </si>
   <si>
     <t>8/24,30/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>FL(4-0-0)</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>3/16,17/2023</t>
   </si>
 </sst>
 </file>
@@ -496,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -641,6 +653,15 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -673,12 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -957,7 +972,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1286,91 +1301,91 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A68" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K76" sqref="K76"/>
+      <pane ySplit="4050" topLeftCell="A73" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="31"/>
@@ -1385,7 +1400,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="9"/>
       <c r="C6" s="32"/>
@@ -1398,24 +1413,24 @@
       <c r="J6" s="9"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +1465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1459,7 +1474,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>251.226</v>
+        <v>253.976</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1469,13 +1484,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>234.7</v>
+        <v>243.45</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="21"/>
@@ -1496,7 +1511,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>43101</v>
       </c>
@@ -1522,7 +1537,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>43132</v>
       </c>
@@ -1542,7 +1557,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>43160</v>
       </c>
@@ -1568,7 +1583,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>43191</v>
       </c>
@@ -1592,7 +1607,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>43221</v>
       </c>
@@ -1612,7 +1627,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>43252</v>
       </c>
@@ -1632,7 +1647,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>43282</v>
       </c>
@@ -1658,7 +1673,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>43313</v>
       </c>
@@ -1678,7 +1693,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>43344</v>
       </c>
@@ -1700,11 +1715,11 @@
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="62">
+      <c r="K19" s="52">
         <v>43370</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>43374</v>
       </c>
@@ -1730,7 +1745,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>43405</v>
       </c>
@@ -1756,7 +1771,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>43435</v>
       </c>
@@ -1780,12 +1795,12 @@
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="62">
+      <c r="K22" s="52">
         <v>43414</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="61" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="51" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="21"/>
@@ -1802,7 +1817,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>43466</v>
       </c>
@@ -1822,7 +1837,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
         <v>43497</v>
       </c>
@@ -1842,7 +1857,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>43525</v>
       </c>
@@ -1868,7 +1883,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>43556</v>
       </c>
@@ -1888,7 +1903,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>43586</v>
       </c>
@@ -1908,7 +1923,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>43617</v>
       </c>
@@ -1934,7 +1949,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
       <c r="B30" s="21" t="s">
         <v>45</v>
@@ -1953,7 +1968,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>43647</v>
       </c>
@@ -1973,7 +1988,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>43678</v>
       </c>
@@ -1993,7 +2008,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>43709</v>
       </c>
@@ -2019,7 +2034,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>43739</v>
       </c>
@@ -2039,7 +2054,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>43770</v>
       </c>
@@ -2059,7 +2074,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="42">
         <v>43800</v>
       </c>
@@ -2083,8 +2098,8 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="61" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
         <v>60</v>
       </c>
       <c r="B37" s="21"/>
@@ -2101,7 +2116,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>43831</v>
       </c>
@@ -2121,7 +2136,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
         <v>43862</v>
       </c>
@@ -2141,7 +2156,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
         <v>43891</v>
       </c>
@@ -2167,7 +2182,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="42">
         <v>43922</v>
       </c>
@@ -2187,7 +2202,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
         <v>43952</v>
       </c>
@@ -2207,7 +2222,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
         <v>43983</v>
       </c>
@@ -2227,7 +2242,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
         <v>44013</v>
       </c>
@@ -2247,7 +2262,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="42">
         <v>44044</v>
       </c>
@@ -2267,7 +2282,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="42">
         <v>44075</v>
       </c>
@@ -2287,7 +2302,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="42">
         <v>44105</v>
       </c>
@@ -2307,7 +2322,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="42">
         <v>44136</v>
       </c>
@@ -2327,7 +2342,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="42">
         <v>44166</v>
       </c>
@@ -2351,8 +2366,8 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="61" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="51" t="s">
         <v>64</v>
       </c>
       <c r="B50" s="21"/>
@@ -2369,7 +2384,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
         <v>44197</v>
       </c>
@@ -2389,7 +2404,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="42">
         <v>44228</v>
       </c>
@@ -2409,7 +2424,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="42">
         <v>44256</v>
       </c>
@@ -2429,7 +2444,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="42">
         <v>44287</v>
       </c>
@@ -2449,7 +2464,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="42">
         <v>44317</v>
       </c>
@@ -2469,7 +2484,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="42">
         <v>44348</v>
       </c>
@@ -2489,7 +2504,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="42">
         <v>44378</v>
       </c>
@@ -2509,7 +2524,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="42">
         <v>44409</v>
       </c>
@@ -2529,7 +2544,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="42">
         <v>44440</v>
       </c>
@@ -2549,7 +2564,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="42">
         <v>44470</v>
       </c>
@@ -2575,7 +2590,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="42">
         <v>44501</v>
       </c>
@@ -2595,7 +2610,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="42">
         <v>44531</v>
       </c>
@@ -2621,7 +2636,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="42"/>
       <c r="B63" s="21" t="s">
         <v>55</v>
@@ -2640,7 +2655,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="42"/>
       <c r="B64" s="21" t="s">
         <v>67</v>
@@ -2657,8 +2672,8 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="61" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="51" t="s">
         <v>66</v>
       </c>
       <c r="B65" s="21"/>
@@ -2675,7 +2690,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
         <v>44562</v>
       </c>
@@ -2695,7 +2710,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="42">
         <v>44593</v>
       </c>
@@ -2721,7 +2736,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
         <v>44621</v>
       </c>
@@ -2743,11 +2758,11 @@
       <c r="H68" s="41"/>
       <c r="I68" s="10"/>
       <c r="J68" s="12"/>
-      <c r="K68" s="62">
+      <c r="K68" s="52">
         <v>44638</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
         <v>44652</v>
       </c>
@@ -2767,7 +2782,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
         <v>44682</v>
       </c>
@@ -2789,11 +2804,11 @@
       </c>
       <c r="I70" s="10"/>
       <c r="J70" s="12"/>
-      <c r="K70" s="62">
+      <c r="K70" s="52">
         <v>44698</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="42"/>
       <c r="B71" s="21" t="s">
         <v>50</v>
@@ -2811,11 +2826,11 @@
       </c>
       <c r="I71" s="10"/>
       <c r="J71" s="12"/>
-      <c r="K71" s="62">
+      <c r="K71" s="52">
         <v>44736</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
         <v>44713</v>
       </c>
@@ -2835,7 +2850,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
         <v>44743</v>
       </c>
@@ -2855,7 +2870,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="42">
         <v>44774</v>
       </c>
@@ -2881,7 +2896,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="42"/>
       <c r="B75" s="21" t="s">
         <v>45</v>
@@ -2903,72 +2918,97 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="42"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="42">
+        <v>44805</v>
+      </c>
       <c r="B76" s="21"/>
-      <c r="C76" s="14"/>
+      <c r="C76" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="41"/>
       <c r="E76" s="10"/>
       <c r="F76" s="21"/>
-      <c r="G76" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="41"/>
       <c r="I76" s="10"/>
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="42"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="42">
+        <f>EDATE(A76,1)</f>
+        <v>44835</v>
+      </c>
       <c r="B77" s="21"/>
-      <c r="C77" s="14"/>
+      <c r="C77" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="41"/>
       <c r="E77" s="10"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="41"/>
       <c r="I77" s="10"/>
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="42"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="42">
+        <f t="shared" ref="A78:A85" si="0">EDATE(A77,1)</f>
+        <v>44866</v>
+      </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="41"/>
       <c r="E78" s="10"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="41"/>
       <c r="I78" s="10"/>
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="42"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="41"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="42">
+        <f t="shared" si="0"/>
+        <v>44896</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D79" s="41">
+        <v>4</v>
+      </c>
       <c r="E79" s="10"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="41"/>
       <c r="I79" s="10"/>
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="42"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="51" t="s">
+        <v>73</v>
+      </c>
       <c r="B80" s="21"/>
       <c r="C80" s="14"/>
       <c r="D80" s="41"/>
@@ -2983,56 +3023,80 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="42"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="42">
+        <f>EDATE(A79,1)</f>
+        <v>44927</v>
+      </c>
       <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="41"/>
       <c r="E81" s="10"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="41"/>
       <c r="I81" s="10"/>
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="42"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="42">
+        <f t="shared" si="0"/>
+        <v>44958</v>
+      </c>
       <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="41"/>
       <c r="E82" s="10"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="41"/>
       <c r="I82" s="10"/>
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="42"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="41"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="42">
+        <f t="shared" si="0"/>
+        <v>44986</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D83" s="41">
+        <v>2</v>
+      </c>
       <c r="E83" s="10"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="41"/>
       <c r="I83" s="10"/>
       <c r="J83" s="12"/>
-      <c r="K83" s="21"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="42"/>
+      <c r="K83" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="42">
+        <f t="shared" si="0"/>
+        <v>45017</v>
+      </c>
       <c r="B84" s="21"/>
       <c r="C84" s="14"/>
       <c r="D84" s="41"/>
@@ -3047,8 +3111,11 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="42"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="42">
+        <f t="shared" si="0"/>
+        <v>45047</v>
+      </c>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
       <c r="D85" s="41"/>
@@ -3063,7 +3130,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="42"/>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
@@ -3079,7 +3146,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="42"/>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
@@ -3095,7 +3162,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="42"/>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
@@ -3111,7 +3178,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="42"/>
       <c r="B89" s="21"/>
       <c r="C89" s="14"/>
@@ -3127,7 +3194,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="42"/>
       <c r="B90" s="21"/>
       <c r="C90" s="14"/>
@@ -3143,7 +3210,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="42"/>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
@@ -3159,7 +3226,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="42"/>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
@@ -3175,7 +3242,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="42"/>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
@@ -3191,7 +3258,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="42"/>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
@@ -3207,7 +3274,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="42"/>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
@@ -3223,7 +3290,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="42"/>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
@@ -3239,7 +3306,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="42"/>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
@@ -3255,7 +3322,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="42"/>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
@@ -3271,7 +3338,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="42"/>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
@@ -3287,7 +3354,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="42"/>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -3303,7 +3370,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="42"/>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -3319,7 +3386,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="42"/>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
@@ -3335,7 +3402,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="42"/>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
@@ -3351,7 +3418,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="42"/>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -3367,7 +3434,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="42"/>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -3383,7 +3450,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="42"/>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -3399,7 +3466,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="42"/>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -3415,7 +3482,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="42"/>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -3431,7 +3498,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="42"/>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -3447,7 +3514,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="42"/>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -3463,7 +3530,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="42"/>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -3479,7 +3546,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="42"/>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -3495,7 +3562,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="42"/>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -3511,7 +3578,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="42"/>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -3527,7 +3594,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="42"/>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -3543,7 +3610,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="42"/>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -3559,7 +3626,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="42"/>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -3575,7 +3642,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="42"/>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -3591,7 +3658,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="42"/>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -3607,7 +3674,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="42"/>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -3623,7 +3690,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="42"/>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -3639,7 +3706,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="42"/>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -3655,7 +3722,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="42"/>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -3671,7 +3738,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="42"/>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -3687,7 +3754,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="42"/>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -3703,7 +3770,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="42"/>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -3719,7 +3786,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="42"/>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -3735,7 +3802,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="42"/>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -3751,7 +3818,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="42"/>
       <c r="B129" s="21"/>
       <c r="C129" s="14"/>
@@ -3767,7 +3834,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="42"/>
       <c r="B130" s="21"/>
       <c r="C130" s="14"/>
@@ -3783,7 +3850,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="21"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="42"/>
       <c r="B131" s="21"/>
       <c r="C131" s="14"/>
@@ -3799,7 +3866,7 @@
       <c r="J131" s="12"/>
       <c r="K131" s="21"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="42"/>
       <c r="B132" s="21"/>
       <c r="C132" s="14"/>
@@ -3815,27 +3882,42 @@
       <c r="J132" s="12"/>
       <c r="K132" s="21"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="43"/>
-      <c r="B133" s="16"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="45"/>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="42"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="41"/>
       <c r="E133" s="10"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="45"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="41"/>
       <c r="I133" s="10"/>
-      <c r="J133" s="13"/>
-      <c r="K133" s="16"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="21"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="43"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="45"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="44" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="45"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="J2:K2"/>
@@ -3879,34 +3961,34 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>24</v>
       </c>
@@ -3935,7 +4017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>202.226</v>
       </c>
@@ -3959,17 +4041,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="35"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
@@ -3983,14 +4065,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="48"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="39">
         <v>1</v>
       </c>
@@ -4017,7 +4099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="39">
         <v>2</v>
       </c>
@@ -4043,7 +4125,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="39">
         <v>3</v>
       </c>
@@ -4069,7 +4151,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="39">
         <v>4</v>
       </c>
@@ -4095,7 +4177,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="39">
         <v>5</v>
       </c>
@@ -4121,7 +4203,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="39">
         <v>6</v>
       </c>
@@ -4147,7 +4229,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="39">
         <v>7</v>
       </c>
@@ -4173,7 +4255,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="39">
         <v>8</v>
       </c>
@@ -4199,7 +4281,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="39">
         <v>9</v>
       </c>
@@ -4219,7 +4301,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="39">
         <v>10</v>
       </c>
@@ -4239,7 +4321,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="39">
         <v>11</v>
       </c>
@@ -4259,7 +4341,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="39">
         <v>12</v>
       </c>
@@ -4280,7 +4362,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="39">
         <v>13</v>
       </c>
@@ -4301,7 +4383,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="39">
         <v>14</v>
       </c>
@@ -4322,7 +4404,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="39">
         <v>15</v>
       </c>
@@ -4343,7 +4425,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="39">
         <v>16</v>
       </c>
@@ -4364,7 +4446,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="39">
         <v>17</v>
       </c>
@@ -4385,7 +4467,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="39">
         <v>18</v>
       </c>
@@ -4406,7 +4488,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="39">
         <v>19</v>
       </c>
@@ -4427,7 +4509,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="39">
         <v>20</v>
       </c>
@@ -4448,7 +4530,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="39">
         <v>21</v>
       </c>
@@ -4469,7 +4551,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="39">
         <v>22</v>
       </c>
@@ -4490,7 +4572,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="39">
         <v>23</v>
       </c>
@@ -4511,7 +4593,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="39">
         <v>24</v>
       </c>
@@ -4532,7 +4614,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="39">
         <v>25</v>
       </c>
@@ -4553,7 +4635,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="39">
         <v>26</v>
       </c>
@@ -4574,7 +4656,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="39">
         <v>27</v>
       </c>
@@ -4595,7 +4677,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="39">
         <v>28</v>
       </c>
@@ -4616,7 +4698,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="39">
         <v>29</v>
       </c>
@@ -4637,7 +4719,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="39">
         <v>30</v>
       </c>
@@ -4658,7 +4740,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="39">
         <v>31</v>
       </c>
@@ -4679,7 +4761,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="39">
         <v>32</v>
       </c>
@@ -4688,7 +4770,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="39">
         <v>33</v>
       </c>
@@ -4697,7 +4779,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="39">
         <v>34</v>
       </c>
@@ -4706,7 +4788,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="39">
         <v>35</v>
       </c>
@@ -4715,7 +4797,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="39">
         <v>36</v>
       </c>
@@ -4724,7 +4806,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="39">
         <v>37</v>
       </c>
@@ -4733,7 +4815,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="39">
         <v>38</v>
       </c>
@@ -4742,7 +4824,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="39">
         <v>39</v>
       </c>
@@ -4751,7 +4833,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="39">
         <v>40</v>
       </c>
@@ -4760,7 +4842,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="39">
         <v>41</v>
       </c>
@@ -4769,7 +4851,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="39">
         <v>42</v>
       </c>
@@ -4778,7 +4860,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="39">
         <v>43</v>
       </c>
@@ -4787,7 +4869,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="39">
         <v>44</v>
       </c>
@@ -4796,7 +4878,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="39">
         <v>45</v>
       </c>
@@ -4805,7 +4887,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="39">
         <v>46</v>
       </c>
@@ -4814,7 +4896,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="39">
         <v>47</v>
       </c>
@@ -4823,7 +4905,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="39">
         <v>48</v>
       </c>
@@ -4832,7 +4914,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="39">
         <v>49</v>
       </c>
@@ -4841,7 +4923,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="39">
         <v>50</v>
       </c>
@@ -4850,7 +4932,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="39">
         <v>51</v>
       </c>
@@ -4859,7 +4941,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="39">
         <v>52</v>
       </c>
@@ -4868,7 +4950,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="39">
         <v>53</v>
       </c>
@@ -4877,7 +4959,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="39">
         <v>54</v>
       </c>
@@ -4886,7 +4968,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="39">
         <v>55</v>
       </c>
@@ -4895,7 +4977,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="39">
         <v>56</v>
       </c>
@@ -4904,7 +4986,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="39">
         <v>57</v>
       </c>
@@ -4913,7 +4995,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="39">
         <v>58</v>
       </c>
@@ -4922,7 +5004,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="39">
         <v>59</v>
       </c>
@@ -4931,7 +5013,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="39">
         <v>60</v>
       </c>
@@ -4940,7 +5022,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
